--- a/outputs-HGR-r202-archive/g__CAG-314_train.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-314_train.xlsx
@@ -502,7 +502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,17 +603,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_0.fasta</t>
+          <t>label_UMGS475_6.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999778771328897</v>
+        <v>0.9905916893584708</v>
       </c>
       <c r="C5" t="n">
-        <v>2.212286711031838e-05</v>
+        <v>0.009408310641529246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999778771328897</v>
+        <v>0.9905916893584708</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -624,17 +624,17 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_12.fasta</t>
+          <t>label_UMGS475_8.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9933411293042799</v>
+        <v>0.6894364846450598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006658870695720103</v>
+        <v>0.3105635153549401</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9933411293042799</v>
+        <v>0.6894364846450598</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -645,17 +645,17 @@
     <row r="7">
       <c r="A7" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_6.fasta</t>
+          <t>label_UMGS475_1.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9905916893584708</v>
+        <v>0.9976117994113771</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009408310641529246</v>
+        <v>0.002388200588622912</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9905916893584708</v>
+        <v>0.9976117994113771</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -666,17 +666,17 @@
     <row r="8">
       <c r="A8" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_8.fasta</t>
+          <t>label_UMGS475_11.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6894364846450598</v>
+        <v>0.75687554946902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3105635153549401</v>
+        <v>0.24312445053098</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6894364846450598</v>
+        <v>0.75687554946902</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -687,38 +687,38 @@
     <row r="9">
       <c r="A9" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_1.fasta</t>
+          <t>label_UMGS475_13.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9976117994113771</v>
+        <v>0.04225136242063732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002388200588622912</v>
+        <v>0.9577486375793627</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9976117994113771</v>
+        <v>0.9577486375793627</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>s__CAG-314 sp000437915</t>
+          <t>s__CAG-314 sp900551395</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_11.fasta</t>
+          <t>label_UMGS475_2.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.75687554946902</v>
+        <v>0.9927217361777892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24312445053098</v>
+        <v>0.007278263822210791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75687554946902</v>
+        <v>0.9927217361777892</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -729,38 +729,38 @@
     <row r="11">
       <c r="A11" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_13.fasta</t>
+          <t>label_UMGS475_14.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04225136242063732</v>
+        <v>0.6485732988162907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9577486375793627</v>
+        <v>0.3514267011837094</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9577486375793627</v>
+        <v>0.6485732988162907</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>s__CAG-314 sp900551395</t>
+          <t>s__CAG-314 sp000437915</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_2.fasta</t>
+          <t>label_UMGS475_4.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9927217361777892</v>
+        <v>0.9889823856530042</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007278263822210791</v>
+        <v>0.0110176143469958</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9927217361777892</v>
+        <v>0.9889823856530042</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -771,17 +771,17 @@
     <row r="13">
       <c r="A13" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_14.fasta</t>
+          <t>label_UMGS475_7.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6485732988162907</v>
+        <v>0.955081581873831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3514267011837094</v>
+        <v>0.04491841812616905</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6485732988162907</v>
+        <v>0.955081581873831</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -792,17 +792,17 @@
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_4.fasta</t>
+          <t>label_UMGS475_9.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9889823856530042</v>
+        <v>0.7987491327641928</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0110176143469958</v>
+        <v>0.2012508672358073</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9889823856530042</v>
+        <v>0.7987491327641928</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -813,17 +813,17 @@
     <row r="15">
       <c r="A15" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_7.fasta</t>
+          <t>label_UMGS475_10.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.955081581873831</v>
+        <v>0.9099796049773419</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04491841812616905</v>
+        <v>0.09002039502265813</v>
       </c>
       <c r="D15" t="n">
-        <v>0.955081581873831</v>
+        <v>0.9099796049773419</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -834,17 +834,17 @@
     <row r="16">
       <c r="A16" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_9.fasta</t>
+          <t>label_UMGS475_3.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7987491327641928</v>
+        <v>0.9950652360759519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2012508672358073</v>
+        <v>0.004934763924048171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7987491327641928</v>
+        <v>0.9950652360759519</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -855,61 +855,19 @@
     <row r="17">
       <c r="A17" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS475_10.fasta</t>
+          <t>label_UMGS475_5.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9099796049773419</v>
+        <v>0.6439904095002544</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09002039502265813</v>
+        <v>0.3560095904997456</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9099796049773419</v>
+        <v>0.6439904095002544</v>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp000437915</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS475_3.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.9950652360759519</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.004934763924048171</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9950652360759519</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp000437915</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS475_5.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6439904095002544</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3560095904997456</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6439904095002544</v>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>s__CAG-314 sp000437915</t>
         </is>
@@ -926,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1363,38 +1321,38 @@
     <row r="21">
       <c r="A21" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_0.fasta</t>
+          <t>label_UMGS1403_18.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9969532522885622</v>
+        <v>0.03492049432653233</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003046747711437714</v>
+        <v>0.9650795056734677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9969532522885622</v>
+        <v>0.9650795056734677</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>s__CAG-314 sp000437915</t>
+          <t>s__CAG-314 sp900551395</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_11.fasta</t>
+          <t>label_UMGS1403_23.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04938643593013137</v>
+        <v>0.002525672067207108</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9506135640698686</v>
+        <v>0.9974743279327929</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9506135640698686</v>
+        <v>0.9974743279327929</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1405,17 +1363,17 @@
     <row r="23">
       <c r="A23" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_17.fasta</t>
+          <t>label_UMGS1403_26.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0005097073044550982</v>
+        <v>0.003023705174554636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9994902926955449</v>
+        <v>0.9969762948254454</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9994902926955449</v>
+        <v>0.9969762948254454</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1426,17 +1384,17 @@
     <row r="24">
       <c r="A24" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_31.fasta</t>
+          <t>label_UMGS1403_27.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0001755782998621447</v>
+        <v>0.008527354193760717</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9998244217001379</v>
+        <v>0.9914726458062393</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9998244217001379</v>
+        <v>0.9914726458062393</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1447,17 +1405,17 @@
     <row r="25">
       <c r="A25" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_4.fasta</t>
+          <t>label_UMGS1403_29.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0002290152465249662</v>
+        <v>0.0007233449027490569</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999770984753475</v>
+        <v>0.9992766550972509</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999770984753475</v>
+        <v>0.9992766550972509</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1468,17 +1426,17 @@
     <row r="26">
       <c r="A26" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_43.fasta</t>
+          <t>label_UMGS1403_33.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.149579543243913e-05</v>
+        <v>0.004090987454586359</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999085042045676</v>
+        <v>0.9959090125454136</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999085042045676</v>
+        <v>0.9959090125454136</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1489,17 +1447,17 @@
     <row r="27">
       <c r="A27" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_47.fasta</t>
+          <t>label_UMGS1403_38.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.54544001039503e-05</v>
+        <v>0.002173510250636279</v>
       </c>
       <c r="C27" t="n">
-        <v>0.999954545599896</v>
+        <v>0.9978264897493637</v>
       </c>
       <c r="D27" t="n">
-        <v>0.999954545599896</v>
+        <v>0.9978264897493637</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1510,17 +1468,17 @@
     <row r="28">
       <c r="A28" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_50.fasta</t>
+          <t>label_UMGS1403_42.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.226412767402657e-06</v>
+        <v>0.001210784573887791</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999927735872326</v>
+        <v>0.9987892154261122</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999927735872326</v>
+        <v>0.9987892154261122</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1531,17 +1489,17 @@
     <row r="29">
       <c r="A29" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_52.fasta</t>
+          <t>label_UMGS1403_44.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.780969494221914e-06</v>
+        <v>0.001727815642065811</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999902190305058</v>
+        <v>0.9982721843579342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9999902190305058</v>
+        <v>0.9982721843579342</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1552,17 +1510,17 @@
     <row r="30">
       <c r="A30" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_57.fasta</t>
+          <t>label_UMGS1403_45.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.0001041365847794795</v>
+        <v>0.001402357095114937</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9998958634152205</v>
+        <v>0.9985976429048851</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9998958634152205</v>
+        <v>0.9985976429048851</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1573,17 +1531,17 @@
     <row r="31">
       <c r="A31" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_60.fasta</t>
+          <t>label_UMGS1403_5.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.375799459286014e-05</v>
+        <v>0.05641933104601526</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9999262420054071</v>
+        <v>0.9435806689539847</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999262420054071</v>
+        <v>0.9435806689539847</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1594,17 +1552,17 @@
     <row r="32">
       <c r="A32" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_62.fasta</t>
+          <t>label_UMGS1403_54.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0002034197392186687</v>
+        <v>0.00104597998255529</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9997965802607813</v>
+        <v>0.9989540200174447</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9997965802607813</v>
+        <v>0.9989540200174447</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1615,17 +1573,17 @@
     <row r="33">
       <c r="A33" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_64.fasta</t>
+          <t>label_UMGS1403_55.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.654960563368668e-05</v>
+        <v>0.00158338772837685</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999834503943663</v>
+        <v>0.9984166122716231</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9999834503943663</v>
+        <v>0.9984166122716231</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,17 +1594,17 @@
     <row r="34">
       <c r="A34" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_72.fasta</t>
+          <t>label_UMGS1403_56.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.57683615518156e-05</v>
+        <v>0.00239799563879417</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9999842316384482</v>
+        <v>0.9976020043612058</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999842316384482</v>
+        <v>0.9976020043612058</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1657,17 +1615,17 @@
     <row r="35">
       <c r="A35" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_73.fasta</t>
+          <t>label_UMGS1403_68.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.159616271690812e-05</v>
+        <v>0.002636180379489539</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999784038372831</v>
+        <v>0.9973638196205105</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9999784038372831</v>
+        <v>0.9973638196205105</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1678,17 +1636,17 @@
     <row r="36">
       <c r="A36" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_75.fasta</t>
+          <t>label_UMGS1403_71.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.75336323057163e-05</v>
+        <v>0.001400440972643135</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9999324663676943</v>
+        <v>0.9985995590273569</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999324663676943</v>
+        <v>0.9985995590273569</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1699,17 +1657,17 @@
     <row r="37">
       <c r="A37" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_84.fasta</t>
+          <t>label_UMGS1403_77.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.200941768628397e-05</v>
+        <v>0.00142113254191023</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9999579905823137</v>
+        <v>0.9985788674580898</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999579905823137</v>
+        <v>0.9985788674580898</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1720,17 +1678,17 @@
     <row r="38">
       <c r="A38" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_88.fasta</t>
+          <t>label_UMGS1403_81.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.613172106791239e-05</v>
+        <v>0.001734588754321309</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9999738682789321</v>
+        <v>0.9982654112456787</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999738682789321</v>
+        <v>0.9982654112456787</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1741,17 +1699,17 @@
     <row r="39">
       <c r="A39" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_9.fasta</t>
+          <t>label_UMGS1403_85.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.010754125697961e-05</v>
+        <v>0.003063521076334452</v>
       </c>
       <c r="C39" t="n">
-        <v>0.999919892458743</v>
+        <v>0.9969364789236655</v>
       </c>
       <c r="D39" t="n">
-        <v>0.999919892458743</v>
+        <v>0.9969364789236655</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1762,17 +1720,17 @@
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_91.fasta</t>
+          <t>label_UMGS1403_90.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.308960160206212e-05</v>
+        <v>0.002210756087381305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9999369103983979</v>
+        <v>0.9977892439126187</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999369103983979</v>
+        <v>0.9977892439126187</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1783,17 +1741,17 @@
     <row r="41">
       <c r="A41" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_18.fasta</t>
+          <t>label_UMGS1403_15.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03492049432653233</v>
+        <v>0.01377311948195848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9650795056734677</v>
+        <v>0.9862268805180415</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9650795056734677</v>
+        <v>0.9862268805180415</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1804,17 +1762,17 @@
     <row r="42">
       <c r="A42" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_23.fasta</t>
+          <t>label_UMGS1403_19.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002525672067207108</v>
+        <v>0.02798608959717919</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9974743279327929</v>
+        <v>0.9720139104028208</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9974743279327929</v>
+        <v>0.9720139104028208</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1825,17 +1783,17 @@
     <row r="43">
       <c r="A43" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_26.fasta</t>
+          <t>label_UMGS1403_2.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.003023705174554636</v>
+        <v>0.1381752681952242</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9969762948254454</v>
+        <v>0.8618247318047759</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9969762948254454</v>
+        <v>0.8618247318047759</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1846,17 +1804,17 @@
     <row r="44">
       <c r="A44" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_27.fasta</t>
+          <t>label_UMGS1403_21.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.008527354193760717</v>
+        <v>0.0147436749933938</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9914726458062393</v>
+        <v>0.9852563250066062</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9914726458062393</v>
+        <v>0.9852563250066062</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1867,17 +1825,17 @@
     <row r="45">
       <c r="A45" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_29.fasta</t>
+          <t>label_UMGS1403_24.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0007233449027490569</v>
+        <v>0.003460355991040998</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9992766550972509</v>
+        <v>0.996539644008959</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9992766550972509</v>
+        <v>0.996539644008959</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1888,17 +1846,17 @@
     <row r="46">
       <c r="A46" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_33.fasta</t>
+          <t>label_UMGS1403_32.fasta</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.004090987454586359</v>
+        <v>0.0001613350529694468</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9959090125454136</v>
+        <v>0.9998386649470306</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9959090125454136</v>
+        <v>0.9998386649470306</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1909,17 +1867,17 @@
     <row r="47">
       <c r="A47" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_38.fasta</t>
+          <t>label_UMGS1403_34.fasta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002173510250636279</v>
+        <v>0.0007573073615375625</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9978264897493637</v>
+        <v>0.9992426926384624</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9978264897493637</v>
+        <v>0.9992426926384624</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1930,17 +1888,17 @@
     <row r="48">
       <c r="A48" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_42.fasta</t>
+          <t>label_UMGS1403_36.fasta</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001210784573887791</v>
+        <v>0.0004493378345509225</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9987892154261122</v>
+        <v>0.9995506621654491</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9987892154261122</v>
+        <v>0.9995506621654491</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1951,17 +1909,17 @@
     <row r="49">
       <c r="A49" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_44.fasta</t>
+          <t>label_UMGS1403_46.fasta</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001727815642065811</v>
+        <v>0.001075479864425133</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9982721843579342</v>
+        <v>0.9989245201355749</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9982721843579342</v>
+        <v>0.9989245201355749</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1972,17 +1930,17 @@
     <row r="50">
       <c r="A50" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_45.fasta</t>
+          <t>label_UMGS1403_49.fasta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001402357095114937</v>
+        <v>9.358328882447253e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0.9985976429048851</v>
+        <v>0.9999064167111755</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9985976429048851</v>
+        <v>0.9999064167111755</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1993,17 +1951,17 @@
     <row r="51">
       <c r="A51" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_5.fasta</t>
+          <t>label_UMGS1403_6.fasta</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.05641933104601526</v>
+        <v>0.001117996390682552</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9435806689539847</v>
+        <v>0.9988820036093174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9435806689539847</v>
+        <v>0.9988820036093174</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2014,17 +1972,17 @@
     <row r="52">
       <c r="A52" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_54.fasta</t>
+          <t>label_UMGS1403_61.fasta</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00104597998255529</v>
+        <v>0.0001738252608101121</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9989540200174447</v>
+        <v>0.9998261747391899</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9989540200174447</v>
+        <v>0.9998261747391899</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2035,17 +1993,17 @@
     <row r="53">
       <c r="A53" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_55.fasta</t>
+          <t>label_UMGS1403_65.fasta</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00158338772837685</v>
+        <v>0.0002121495124223216</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9984166122716231</v>
+        <v>0.9997878504875777</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9984166122716231</v>
+        <v>0.9997878504875777</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2056,17 +2014,17 @@
     <row r="54">
       <c r="A54" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_56.fasta</t>
+          <t>label_UMGS1403_7.fasta</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.00239799563879417</v>
+        <v>0.005421205380938487</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9976020043612058</v>
+        <v>0.9945787946190615</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9976020043612058</v>
+        <v>0.9945787946190615</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2077,17 +2035,17 @@
     <row r="55">
       <c r="A55" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_68.fasta</t>
+          <t>label_UMGS1403_74.fasta</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002636180379489539</v>
+        <v>6.037321975993493e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0.9973638196205105</v>
+        <v>0.9999396267802401</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9973638196205105</v>
+        <v>0.9999396267802401</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2098,17 +2056,17 @@
     <row r="56">
       <c r="A56" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_71.fasta</t>
+          <t>label_UMGS1403_8.fasta</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001400440972643135</v>
+        <v>0.06969208384311887</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9985995590273569</v>
+        <v>0.9303079161568811</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9985995590273569</v>
+        <v>0.9303079161568811</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2119,17 +2077,17 @@
     <row r="57">
       <c r="A57" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_77.fasta</t>
+          <t>label_UMGS1403_83.fasta</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.00142113254191023</v>
+        <v>0.0001400478918996972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9985788674580898</v>
+        <v>0.9998599521081003</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9985788674580898</v>
+        <v>0.9998599521081003</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2140,17 +2098,17 @@
     <row r="58">
       <c r="A58" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_81.fasta</t>
+          <t>label_UMGS1403_94.fasta</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001734588754321309</v>
+        <v>6.165385109280219e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9982654112456787</v>
+        <v>0.9999383461489072</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9982654112456787</v>
+        <v>0.9999383461489072</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2161,17 +2119,17 @@
     <row r="59">
       <c r="A59" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_85.fasta</t>
+          <t>label_UMGS1403_96.fasta</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.003063521076334452</v>
+        <v>9.415801749124153e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9969364789236655</v>
+        <v>0.9999058419825088</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9969364789236655</v>
+        <v>0.9999058419825088</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2182,17 +2140,17 @@
     <row r="60">
       <c r="A60" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_90.fasta</t>
+          <t>label_UMGS1403_1.fasta</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.002210756087381305</v>
+        <v>0.2735580292704209</v>
       </c>
       <c r="C60" t="n">
-        <v>0.9977892439126187</v>
+        <v>0.7264419707295791</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9977892439126187</v>
+        <v>0.7264419707295791</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2203,17 +2161,17 @@
     <row r="61">
       <c r="A61" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_15.fasta</t>
+          <t>label_UMGS1403_10.fasta</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01377311948195848</v>
+        <v>0.01912031605367503</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9862268805180415</v>
+        <v>0.980879683946325</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9862268805180415</v>
+        <v>0.980879683946325</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2224,17 +2182,17 @@
     <row r="62">
       <c r="A62" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_19.fasta</t>
+          <t>label_UMGS1403_22.fasta</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.02798608959717919</v>
+        <v>0.004401569758537449</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9720139104028208</v>
+        <v>0.9955984302414626</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9720139104028208</v>
+        <v>0.9955984302414626</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2245,17 +2203,17 @@
     <row r="63">
       <c r="A63" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_2.fasta</t>
+          <t>label_UMGS1403_25.fasta</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1381752681952242</v>
+        <v>0.00650871185338564</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8618247318047759</v>
+        <v>0.9934912881466144</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8618247318047759</v>
+        <v>0.9934912881466144</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2266,17 +2224,17 @@
     <row r="64">
       <c r="A64" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_21.fasta</t>
+          <t>label_UMGS1403_3.fasta</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0147436749933938</v>
+        <v>0.1062478336672235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9852563250066062</v>
+        <v>0.8937521663327767</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9852563250066062</v>
+        <v>0.8937521663327767</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2287,17 +2245,17 @@
     <row r="65">
       <c r="A65" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_24.fasta</t>
+          <t>label_UMGS1403_30.fasta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.003460355991040998</v>
+        <v>0.003081056523432379</v>
       </c>
       <c r="C65" t="n">
-        <v>0.996539644008959</v>
+        <v>0.9969189434765676</v>
       </c>
       <c r="D65" t="n">
-        <v>0.996539644008959</v>
+        <v>0.9969189434765676</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2308,17 +2266,17 @@
     <row r="66">
       <c r="A66" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_32.fasta</t>
+          <t>label_UMGS1403_35.fasta</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0001613350529694468</v>
+        <v>0.006423053728992212</v>
       </c>
       <c r="C66" t="n">
-        <v>0.9998386649470306</v>
+        <v>0.9935769462710078</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9998386649470306</v>
+        <v>0.9935769462710078</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2329,17 +2287,17 @@
     <row r="67">
       <c r="A67" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_34.fasta</t>
+          <t>label_UMGS1403_37.fasta</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0007573073615375625</v>
+        <v>0.001959335733925704</v>
       </c>
       <c r="C67" t="n">
-        <v>0.9992426926384624</v>
+        <v>0.9980406642660743</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9992426926384624</v>
+        <v>0.9980406642660743</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2350,17 +2308,17 @@
     <row r="68">
       <c r="A68" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_36.fasta</t>
+          <t>label_UMGS1403_40.fasta</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0004493378345509225</v>
+        <v>0.001974281121670196</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9995506621654491</v>
+        <v>0.9980257188783298</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9995506621654491</v>
+        <v>0.9980257188783298</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2371,17 +2329,17 @@
     <row r="69">
       <c r="A69" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_46.fasta</t>
+          <t>label_UMGS1403_41.fasta</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.001075479864425133</v>
+        <v>0.003038180743231256</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9989245201355749</v>
+        <v>0.9969618192567687</v>
       </c>
       <c r="D69" t="n">
-        <v>0.9989245201355749</v>
+        <v>0.9969618192567687</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2392,17 +2350,17 @@
     <row r="70">
       <c r="A70" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_49.fasta</t>
+          <t>label_UMGS1403_51.fasta</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.358328882447253e-05</v>
+        <v>0.001665512979093897</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9999064167111755</v>
+        <v>0.9983344870209061</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999064167111755</v>
+        <v>0.9983344870209061</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2413,17 +2371,17 @@
     <row r="71">
       <c r="A71" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_6.fasta</t>
+          <t>label_UMGS1403_58.fasta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001117996390682552</v>
+        <v>0.002100522565380181</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9988820036093174</v>
+        <v>0.9978994774346198</v>
       </c>
       <c r="D71" t="n">
-        <v>0.9988820036093174</v>
+        <v>0.9978994774346198</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2434,17 +2392,17 @@
     <row r="72">
       <c r="A72" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_61.fasta</t>
+          <t>label_UMGS1403_63.fasta</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0001738252608101121</v>
+        <v>0.001747294716952008</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9998261747391899</v>
+        <v>0.998252705283048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9998261747391899</v>
+        <v>0.998252705283048</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2455,17 +2413,17 @@
     <row r="73">
       <c r="A73" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_65.fasta</t>
+          <t>label_UMGS1403_67.fasta</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0002121495124223216</v>
+        <v>0.00196081792631897</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9997878504875777</v>
+        <v>0.998039182073681</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9997878504875777</v>
+        <v>0.998039182073681</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2476,17 +2434,17 @@
     <row r="74">
       <c r="A74" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_7.fasta</t>
+          <t>label_UMGS1403_70.fasta</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.005421205380938487</v>
+        <v>0.001758456273639686</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9945787946190615</v>
+        <v>0.9982415437263603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9945787946190615</v>
+        <v>0.9982415437263603</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2497,17 +2455,17 @@
     <row r="75">
       <c r="A75" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_74.fasta</t>
+          <t>label_UMGS1403_78.fasta</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6.037321975993493e-05</v>
+        <v>0.002264560119314751</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999396267802401</v>
+        <v>0.9977354398806852</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9999396267802401</v>
+        <v>0.9977354398806852</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2518,17 +2476,17 @@
     <row r="76">
       <c r="A76" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_8.fasta</t>
+          <t>label_UMGS1403_79.fasta</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.06969208384311887</v>
+        <v>0.002014521363288169</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9303079161568811</v>
+        <v>0.9979854786367118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9303079161568811</v>
+        <v>0.9979854786367118</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2539,17 +2497,17 @@
     <row r="77">
       <c r="A77" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_83.fasta</t>
+          <t>label_UMGS1403_80.fasta</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.0001400478918996972</v>
+        <v>0.001754828780480833</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9998599521081003</v>
+        <v>0.9982451712195192</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9998599521081003</v>
+        <v>0.9982451712195192</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2560,17 +2518,17 @@
     <row r="78">
       <c r="A78" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_94.fasta</t>
+          <t>label_UMGS1403_92.fasta</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6.165385109280219e-05</v>
+        <v>0.002281267758943328</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9999383461489072</v>
+        <v>0.9977187322410567</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9999383461489072</v>
+        <v>0.9977187322410567</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2581,17 +2539,17 @@
     <row r="79">
       <c r="A79" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_96.fasta</t>
+          <t>label_UMGS1403_12.fasta</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9.415801749124153e-05</v>
+        <v>0.07452185064036543</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9999058419825088</v>
+        <v>0.9254781493596346</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9999058419825088</v>
+        <v>0.9254781493596346</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2602,17 +2560,17 @@
     <row r="80">
       <c r="A80" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_1.fasta</t>
+          <t>label_UMGS1403_13.fasta</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2735580292704209</v>
+        <v>0.001417846488711239</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7264419707295791</v>
+        <v>0.9985821535112888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7264419707295791</v>
+        <v>0.9985821535112888</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2623,17 +2581,17 @@
     <row r="81">
       <c r="A81" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_10.fasta</t>
+          <t>label_UMGS1403_14.fasta</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.01912031605367503</v>
+        <v>0.09292979566193503</v>
       </c>
       <c r="C81" t="n">
-        <v>0.980879683946325</v>
+        <v>0.907070204338065</v>
       </c>
       <c r="D81" t="n">
-        <v>0.980879683946325</v>
+        <v>0.907070204338065</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2644,17 +2602,17 @@
     <row r="82">
       <c r="A82" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_22.fasta</t>
+          <t>label_UMGS1403_16.fasta</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.004401569758537449</v>
+        <v>0.04233151918441003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9955984302414626</v>
+        <v>0.95766848081559</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9955984302414626</v>
+        <v>0.95766848081559</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2665,17 +2623,17 @@
     <row r="83">
       <c r="A83" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_25.fasta</t>
+          <t>label_UMGS1403_20.fasta</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00650871185338564</v>
+        <v>0.0005633796117889833</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9934912881466144</v>
+        <v>0.999436620388211</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9934912881466144</v>
+        <v>0.999436620388211</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2686,17 +2644,17 @@
     <row r="84">
       <c r="A84" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_3.fasta</t>
+          <t>label_UMGS1403_28.fasta</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1062478336672235</v>
+        <v>0.002951863629006235</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8937521663327767</v>
+        <v>0.9970481363709938</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8937521663327767</v>
+        <v>0.9970481363709938</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2707,17 +2665,17 @@
     <row r="85">
       <c r="A85" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_30.fasta</t>
+          <t>label_UMGS1403_39.fasta</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.003081056523432379</v>
+        <v>0.001955238912880963</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9969189434765676</v>
+        <v>0.998044761087119</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9969189434765676</v>
+        <v>0.998044761087119</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2728,17 +2686,17 @@
     <row r="86">
       <c r="A86" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_35.fasta</t>
+          <t>label_UMGS1403_48.fasta</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.006423053728992212</v>
+        <v>0.001112422469525254</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9935769462710078</v>
+        <v>0.9988875775304747</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9935769462710078</v>
+        <v>0.9988875775304747</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2749,17 +2707,17 @@
     <row r="87">
       <c r="A87" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_37.fasta</t>
+          <t>label_UMGS1403_53.fasta</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001959335733925704</v>
+        <v>0.0006494555313606432</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9980406642660743</v>
+        <v>0.9993505444686394</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9980406642660743</v>
+        <v>0.9993505444686394</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2770,17 +2728,17 @@
     <row r="88">
       <c r="A88" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_40.fasta</t>
+          <t>label_UMGS1403_59.fasta</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001974281121670196</v>
+        <v>0.0009543703495104028</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9980257188783298</v>
+        <v>0.9990456296504896</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9980257188783298</v>
+        <v>0.9990456296504896</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2791,17 +2749,17 @@
     <row r="89">
       <c r="A89" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_41.fasta</t>
+          <t>label_UMGS1403_66.fasta</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.003038180743231256</v>
+        <v>0.001371588262695456</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9969618192567687</v>
+        <v>0.9986284117373045</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9969618192567687</v>
+        <v>0.9986284117373045</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2812,17 +2770,17 @@
     <row r="90">
       <c r="A90" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_51.fasta</t>
+          <t>label_UMGS1403_69.fasta</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.001665512979093897</v>
+        <v>0.0009851599220656038</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9983344870209061</v>
+        <v>0.9990148400779344</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9983344870209061</v>
+        <v>0.9990148400779344</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2833,17 +2791,17 @@
     <row r="91">
       <c r="A91" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_58.fasta</t>
+          <t>label_UMGS1403_76.fasta</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.002100522565380181</v>
+        <v>0.003111031363189354</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9978994774346198</v>
+        <v>0.9968889686368106</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9978994774346198</v>
+        <v>0.9968889686368106</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2854,17 +2812,17 @@
     <row r="92">
       <c r="A92" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_63.fasta</t>
+          <t>label_UMGS1403_82.fasta</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.001747294716952008</v>
+        <v>0.002064792866327547</v>
       </c>
       <c r="C92" t="n">
-        <v>0.998252705283048</v>
+        <v>0.9979352071336725</v>
       </c>
       <c r="D92" t="n">
-        <v>0.998252705283048</v>
+        <v>0.9979352071336725</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2875,17 +2833,17 @@
     <row r="93">
       <c r="A93" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_67.fasta</t>
+          <t>label_UMGS1403_86.fasta</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.00196081792631897</v>
+        <v>0.001873896351888504</v>
       </c>
       <c r="C93" t="n">
-        <v>0.998039182073681</v>
+        <v>0.9981261036481115</v>
       </c>
       <c r="D93" t="n">
-        <v>0.998039182073681</v>
+        <v>0.9981261036481115</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2896,17 +2854,17 @@
     <row r="94">
       <c r="A94" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_70.fasta</t>
+          <t>label_UMGS1403_87.fasta</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001758456273639686</v>
+        <v>0.001624346955634071</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9982415437263603</v>
+        <v>0.9983756530443659</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9982415437263603</v>
+        <v>0.9983756530443659</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2917,17 +2875,17 @@
     <row r="95">
       <c r="A95" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_78.fasta</t>
+          <t>label_UMGS1403_89.fasta</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.002264560119314751</v>
+        <v>0.002523939790868956</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9977354398806852</v>
+        <v>0.997476060209131</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9977354398806852</v>
+        <v>0.997476060209131</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2938,17 +2896,17 @@
     <row r="96">
       <c r="A96" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_79.fasta</t>
+          <t>label_UMGS1403_93.fasta</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.002014521363288169</v>
+        <v>0.001754960309776843</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9979854786367118</v>
+        <v>0.9982450396902232</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9979854786367118</v>
+        <v>0.9982450396902232</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2959,439 +2917,19 @@
     <row r="97">
       <c r="A97" s="11" t="inlineStr">
         <is>
-          <t>label_UMGS1403_80.fasta</t>
+          <t>label_UMGS1403_95.fasta</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.001754828780480833</v>
+        <v>0.003159625958188528</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9982451712195192</v>
+        <v>0.9968403740418115</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9982451712195192</v>
+        <v>0.9968403740418115</v>
       </c>
       <c r="E97" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_92.fasta</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.002281267758943328</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9977187322410567</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.9977187322410567</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_12.fasta</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.07452185064036543</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9254781493596346</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.9254781493596346</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_13.fasta</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.001417846488711239</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9985821535112888</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.9985821535112888</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_14.fasta</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.09292979566193503</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.907070204338065</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.907070204338065</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_16.fasta</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.04233151918441003</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.95766848081559</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.95766848081559</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_20.fasta</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.0005633796117889833</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.999436620388211</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.999436620388211</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_28.fasta</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.002951863629006235</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9970481363709938</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.9970481363709938</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_39.fasta</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0.001955238912880963</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.998044761087119</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.998044761087119</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_48.fasta</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.001112422469525254</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9988875775304747</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.9988875775304747</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_53.fasta</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.0006494555313606432</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9993505444686394</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9993505444686394</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_59.fasta</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.0009543703495104028</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9990456296504896</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.9990456296504896</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_66.fasta</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.001371588262695456</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9986284117373045</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9986284117373045</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_69.fasta</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.0009851599220656038</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9990148400779344</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.9990148400779344</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_76.fasta</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.003111031363189354</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9968889686368106</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9968889686368106</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_82.fasta</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.002064792866327547</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9979352071336725</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.9979352071336725</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_86.fasta</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0.001873896351888504</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9981261036481115</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.9981261036481115</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_87.fasta</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.001624346955634071</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.9983756530443659</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9983756530443659</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_89.fasta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0.002523939790868956</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.997476060209131</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.997476060209131</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_93.fasta</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0.001754960309776843</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.9982450396902232</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.9982450396902232</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>s__CAG-314 sp900551395</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>label_UMGS1403_95.fasta</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.003159625958188528</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.9968403740418115</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.9968403740418115</v>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>s__CAG-314 sp900551395</t>
         </is>
